--- a/2 Formulas and Functions/Formulas and Functions - 6. Rounding Function.xlsx
+++ b/2 Formulas and Functions/Formulas and Functions - 6. Rounding Function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\4. Formulas and Functions\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/2 Formulas and Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB0FD35-B75A-4C5E-94CD-9550479F6CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{4AB0FD35-B75A-4C5E-94CD-9550479F6CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8597872-A795-4A4E-AB66-16D8CE697664}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,13 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,6 +269,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="176" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -697,10 +693,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>10987.654321</v>
       </c>
     </row>
@@ -719,24 +715,24 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -744,130 +740,180 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <f>ROUND($C$2,B6)</f>
+        <v>10987.6543</v>
+      </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f>ROUNDUP($C$2, E6)</f>
+        <v>10987.654399999999</v>
+      </c>
       <c r="H6" s="3">
         <v>4</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="3">
+        <f>ROUNDDOWN($C$2,H6)</f>
+        <v>10987.6543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:C10" si="0">ROUND($C$2,B7)</f>
+        <v>10987.7</v>
+      </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F10" si="1">ROUNDUP($C$2, E7)</f>
+        <v>10987.7</v>
+      </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I10" si="2">ROUNDDOWN($C$2,H7)</f>
+        <v>10987.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>10988</v>
+      </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>10988</v>
+      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>10987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>-1</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>10990</v>
+      </c>
       <c r="E9" s="3">
         <v>-1</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>10990</v>
+      </c>
       <c r="H9" s="3">
         <v>-1</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>10980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>-4</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
       <c r="E10" s="3">
         <v>-4</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
       <c r="H10" s="3">
         <v>-4</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
         <v>70.25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="14" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9">
+        <f>PRODUCT(B13,C13)</f>
+        <v>1053.75</v>
+      </c>
+      <c r="C15" s="9">
+        <f>ROUND(B15, 0)</f>
+        <v>1054</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
